--- a/data/trans_orig/P36BPD10_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD10_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69483282-C668-4004-ACA9-2DB9F4ABE8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05CE81AB-690E-4D05-83A9-05669D1F31B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2EF186A0-9E91-41B5-8114-20F783F0282B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{549975EA-9F2C-45FA-956A-399E81068621}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="175">
   <si>
     <t>Población según el número de raciones pescado o mariscos que consumen a la semana en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>11,29%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>Uno por semana</t>
@@ -104,313 +104,307 @@
     <t>36,54%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
   </si>
   <si>
     <t>35,72%</t>
   </si>
   <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
   </si>
   <si>
     <t>36,07%</t>
   </si>
   <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>Dos o más por semana</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
     <t>30,37%</t>
   </si>
   <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>Dos o más por semana</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
   </si>
   <si>
     <t>43,04%</t>
   </si>
   <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
     <t>39,7%</t>
   </si>
   <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
   </si>
   <si>
     <t>40,63%</t>
   </si>
   <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
+    <t>36,78%</t>
   </si>
   <si>
     <t>51,12%</t>
   </si>
   <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
   </si>
   <si>
     <t>46,35%</t>
   </si>
   <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
+    <t>41,46%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -419,43 +413,43 @@
     <t>10,09%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>48,1%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
   </si>
   <si>
     <t>45,79%</t>
   </si>
   <si>
-    <t>42,7%</t>
+    <t>42,76%</t>
   </si>
   <si>
     <t>49,01%</t>
@@ -464,64 +458,67 @@
     <t>46,85%</t>
   </si>
   <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
   </si>
   <si>
     <t>41,81%</t>
   </si>
   <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
   </si>
   <si>
     <t>45,58%</t>
   </si>
   <si>
-    <t>42,63%</t>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>48,22%</t>
   </si>
   <si>
-    <t>46,19%</t>
+    <t>46,39%</t>
   </si>
   <si>
     <t>51,14%</t>
@@ -530,43 +527,37 @@
     <t>44,64%</t>
   </si>
   <si>
-    <t>40,12%</t>
+    <t>40,21%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
   </si>
   <si>
     <t>41,92%</t>
   </si>
   <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
   </si>
   <si>
     <t>47,04%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
   </si>
   <si>
     <t>44,63%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -981,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9594E83-BC37-4AA4-83AE-8C21EB5982FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DECA1E6-1386-45E2-948E-C38F6C03693B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1831,7 +1822,7 @@
         <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="H18" s="7">
         <v>477</v>
@@ -1840,13 +1831,13 @@
         <v>446974</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>771</v>
@@ -1855,13 +1846,13 @@
         <v>743100</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,7 +1908,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1929,13 +1920,13 @@
         <v>97279</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>139</v>
@@ -1944,13 +1935,13 @@
         <v>99180</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>224</v>
@@ -1959,13 +1950,13 @@
         <v>196459</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1971,13 @@
         <v>463573</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>680</v>
@@ -1995,13 +1986,13 @@
         <v>526499</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>1162</v>
@@ -2010,13 +2001,13 @@
         <v>990071</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,13 +2022,13 @@
         <v>402918</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>742</v>
@@ -2046,13 +2037,13 @@
         <v>524052</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M22" s="7">
         <v>1180</v>
@@ -2061,13 +2052,13 @@
         <v>926969</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2126,13 @@
         <v>333254</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>435</v>
@@ -2153,10 +2144,10 @@
         <v>17</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>734</v>
@@ -2165,13 +2156,13 @@
         <v>649952</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2177,13 @@
         <v>1629653</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>2369</v>
@@ -2201,13 +2192,13 @@
         <v>1698966</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>3939</v>
@@ -2219,10 +2210,10 @@
         <v>54</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2228,13 @@
         <v>1416497</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>2556</v>
@@ -2252,13 +2243,13 @@
         <v>1790042</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>4057</v>
@@ -2267,13 +2258,13 @@
         <v>3206539</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,7 +2320,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD10_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD10_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05CE81AB-690E-4D05-83A9-05669D1F31B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{753D2DBB-35ED-45E8-9518-C7C0697696FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{549975EA-9F2C-45FA-956A-399E81068621}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EB5B5F1F-4A0F-44F4-BFEC-ED3E080FB856}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="152">
   <si>
     <t>Población según el número de raciones pescado o mariscos que consumen a la semana en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -65,499 +65,430 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Menos de una por semana</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>Uno por semana</t>
   </si>
   <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
   </si>
   <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
   </si>
   <si>
     <t>40,21%</t>
   </si>
   <si>
-    <t>46,75%</t>
+    <t>30,25%</t>
   </si>
   <si>
     <t>43,81%</t>
   </si>
   <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -972,8 +903,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DECA1E6-1386-45E2-948E-C38F6C03693B}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0456EA76-5A6B-450C-9105-93D506C0C9DE}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1090,10 +1021,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>11226</v>
+        <v>31063</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1105,10 +1036,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="I4" s="7">
-        <v>7916</v>
+        <v>35792</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1120,10 +1051,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="N4" s="7">
-        <v>19142</v>
+        <v>66855</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1141,10 +1072,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="D5" s="7">
-        <v>36316</v>
+        <v>273772</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1156,10 +1087,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>83</v>
+        <v>522</v>
       </c>
       <c r="I5" s="7">
-        <v>46702</v>
+        <v>294837</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1171,10 +1102,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>123</v>
+        <v>834</v>
       </c>
       <c r="N5" s="7">
-        <v>83019</v>
+        <v>568609</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1192,10 +1123,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>376</v>
       </c>
       <c r="D6" s="7">
-        <v>51856</v>
+        <v>327257</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1207,10 +1138,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>146</v>
+        <v>653</v>
       </c>
       <c r="I6" s="7">
-        <v>76115</v>
+        <v>344330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1222,10 +1153,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>208</v>
+        <v>1029</v>
       </c>
       <c r="N6" s="7">
-        <v>127971</v>
+        <v>671588</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1243,10 +1174,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>115</v>
+        <v>726</v>
       </c>
       <c r="D7" s="7">
-        <v>99398</v>
+        <v>632092</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1258,10 +1189,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>674959</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1273,10 +1204,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>358</v>
+        <v>1963</v>
       </c>
       <c r="N7" s="7">
-        <v>230131</v>
+        <v>1307051</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1296,10 +1227,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D8" s="7">
-        <v>21052</v>
+        <v>84776</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1311,10 +1242,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="I8" s="7">
-        <v>30066</v>
+        <v>66721</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1326,10 +1257,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="N8" s="7">
-        <v>51118</v>
+        <v>151498</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1347,10 +1278,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>272</v>
+        <v>490</v>
       </c>
       <c r="D9" s="7">
-        <v>248308</v>
+        <v>727380</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1362,10 +1293,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>439</v>
+        <v>731</v>
       </c>
       <c r="I9" s="7">
-        <v>274358</v>
+        <v>470130</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1377,10 +1308,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>711</v>
+        <v>1221</v>
       </c>
       <c r="N9" s="7">
-        <v>522666</v>
+        <v>1197510</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1398,10 +1329,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="D10" s="7">
-        <v>279542</v>
+        <v>380111</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1413,10 +1344,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>507</v>
+        <v>684</v>
       </c>
       <c r="I10" s="7">
-        <v>287696</v>
+        <v>420590</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1428,10 +1359,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>821</v>
+        <v>1077</v>
       </c>
       <c r="N10" s="7">
-        <v>567237</v>
+        <v>800701</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1449,10 +1380,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>611</v>
+        <v>963</v>
       </c>
       <c r="D11" s="7">
-        <v>548902</v>
+        <v>1192267</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1464,10 +1395,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>994</v>
+        <v>1515</v>
       </c>
       <c r="I11" s="7">
-        <v>592120</v>
+        <v>957441</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1479,10 +1410,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1605</v>
+        <v>2478</v>
       </c>
       <c r="N11" s="7">
-        <v>1141022</v>
+        <v>2149708</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1502,10 +1433,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D12" s="7">
-        <v>84876</v>
+        <v>116850</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1517,10 +1448,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="I12" s="7">
-        <v>74767</v>
+        <v>98557</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1532,10 +1463,10 @@
         <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N12" s="7">
-        <v>159644</v>
+        <v>215406</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1553,10 +1484,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>490</v>
+        <v>286</v>
       </c>
       <c r="D13" s="7">
-        <v>567631</v>
+        <v>297161</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -1568,10 +1499,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>731</v>
+        <v>436</v>
       </c>
       <c r="I13" s="7">
-        <v>528779</v>
+        <v>295979</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -1583,10 +1514,10 @@
         <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>1221</v>
+        <v>722</v>
       </c>
       <c r="N13" s="7">
-        <v>1096410</v>
+        <v>593140</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -1604,10 +1535,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>393</v>
+        <v>294</v>
       </c>
       <c r="D14" s="7">
-        <v>386055</v>
+        <v>290669</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1619,10 +1550,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>684</v>
+        <v>477</v>
       </c>
       <c r="I14" s="7">
-        <v>455206</v>
+        <v>538830</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1634,10 +1565,10 @@
         <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>1077</v>
+        <v>771</v>
       </c>
       <c r="N14" s="7">
-        <v>841262</v>
+        <v>829499</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1655,10 +1586,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>963</v>
+        <v>676</v>
       </c>
       <c r="D15" s="7">
-        <v>1038563</v>
+        <v>704680</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1670,10 +1601,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1515</v>
+        <v>1047</v>
       </c>
       <c r="I15" s="7">
-        <v>1058752</v>
+        <v>933366</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1685,10 +1616,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2478</v>
+        <v>1723</v>
       </c>
       <c r="N15" s="7">
-        <v>2097315</v>
+        <v>1638046</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1708,10 +1639,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7">
-        <v>118821</v>
+        <v>95925</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -1723,34 +1654,34 @@
         <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I16" s="7">
-        <v>104768</v>
+        <v>91127</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>224</v>
+      </c>
+      <c r="N16" s="7">
+        <v>187052</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M16" s="7">
-        <v>230</v>
-      </c>
-      <c r="N16" s="7">
-        <v>223589</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1759,49 +1690,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>286</v>
+        <v>482</v>
       </c>
       <c r="D17" s="7">
-        <v>313825</v>
+        <v>438194</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>680</v>
+      </c>
+      <c r="I17" s="7">
+        <v>521921</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="7">
-        <v>436</v>
-      </c>
-      <c r="I17" s="7">
-        <v>322629</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1162</v>
+      </c>
+      <c r="N17" s="7">
+        <v>960115</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="7">
-        <v>722</v>
-      </c>
-      <c r="N17" s="7">
-        <v>636453</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,25 +1741,25 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>294</v>
+        <v>438</v>
       </c>
       <c r="D18" s="7">
-        <v>296126</v>
+        <v>391046</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="H18" s="7">
-        <v>477</v>
+        <v>742</v>
       </c>
       <c r="I18" s="7">
-        <v>446974</v>
+        <v>481242</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>118</v>
@@ -1840,10 +1771,10 @@
         <v>120</v>
       </c>
       <c r="M18" s="7">
-        <v>771</v>
+        <v>1180</v>
       </c>
       <c r="N18" s="7">
-        <v>743100</v>
+        <v>872289</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>121</v>
@@ -1852,7 +1783,7 @@
         <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,10 +1792,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>676</v>
+        <v>1005</v>
       </c>
       <c r="D19" s="7">
-        <v>728772</v>
+        <v>925166</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1876,10 +1807,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1047</v>
+        <v>1561</v>
       </c>
       <c r="I19" s="7">
-        <v>874371</v>
+        <v>1094290</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1891,10 +1822,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1723</v>
+        <v>2566</v>
       </c>
       <c r="N19" s="7">
-        <v>1603142</v>
+        <v>2019456</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1908,16 +1839,16 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>85</v>
+        <v>299</v>
       </c>
       <c r="D20" s="7">
-        <v>97279</v>
+        <v>328614</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>124</v>
@@ -1929,10 +1860,10 @@
         <v>126</v>
       </c>
       <c r="H20" s="7">
-        <v>139</v>
+        <v>435</v>
       </c>
       <c r="I20" s="7">
-        <v>99180</v>
+        <v>292197</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>127</v>
@@ -1944,10 +1875,10 @@
         <v>129</v>
       </c>
       <c r="M20" s="7">
-        <v>224</v>
+        <v>734</v>
       </c>
       <c r="N20" s="7">
-        <v>196459</v>
+        <v>620811</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>130</v>
@@ -1965,10 +1896,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>482</v>
+        <v>1570</v>
       </c>
       <c r="D21" s="7">
-        <v>463573</v>
+        <v>1736507</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>133</v>
@@ -1980,10 +1911,10 @@
         <v>135</v>
       </c>
       <c r="H21" s="7">
-        <v>680</v>
+        <v>2369</v>
       </c>
       <c r="I21" s="7">
-        <v>526499</v>
+        <v>1582867</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>136</v>
@@ -1995,10 +1926,10 @@
         <v>138</v>
       </c>
       <c r="M21" s="7">
-        <v>1162</v>
+        <v>3939</v>
       </c>
       <c r="N21" s="7">
-        <v>990071</v>
+        <v>3319374</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>139</v>
@@ -2016,10 +1947,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>438</v>
+        <v>1501</v>
       </c>
       <c r="D22" s="7">
-        <v>402918</v>
+        <v>1389084</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>142</v>
@@ -2031,10 +1962,10 @@
         <v>144</v>
       </c>
       <c r="H22" s="7">
-        <v>742</v>
+        <v>2556</v>
       </c>
       <c r="I22" s="7">
-        <v>524052</v>
+        <v>1784993</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>145</v>
@@ -2046,10 +1977,10 @@
         <v>147</v>
       </c>
       <c r="M22" s="7">
-        <v>1180</v>
+        <v>4057</v>
       </c>
       <c r="N22" s="7">
-        <v>926969</v>
+        <v>3174077</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -2067,10 +1998,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1005</v>
+        <v>3370</v>
       </c>
       <c r="D23" s="7">
-        <v>963770</v>
+        <v>3454205</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2082,10 +2013,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1561</v>
+        <v>5360</v>
       </c>
       <c r="I23" s="7">
-        <v>1149731</v>
+        <v>3660057</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2097,10 +2028,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2566</v>
+        <v>8730</v>
       </c>
       <c r="N23" s="7">
-        <v>2113500</v>
+        <v>7114262</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2113,222 +2044,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>299</v>
-      </c>
-      <c r="D24" s="7">
-        <v>333254</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="A24" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="7">
-        <v>435</v>
-      </c>
-      <c r="I24" s="7">
-        <v>316698</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M24" s="7">
-        <v>734</v>
-      </c>
-      <c r="N24" s="7">
-        <v>649952</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1570</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1629653</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2369</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1698966</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3939</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3328619</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1501</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1416497</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2556</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1790042</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M26" s="7">
-        <v>4057</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3206539</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3370</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3379404</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5360</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3805707</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8730</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7185110</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>174</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
